--- a/generate_qr_code/sample_data.xlsx
+++ b/generate_qr_code/sample_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t xml:space="preserve">Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riane Borlagdan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diyan</t>
   </si>
   <si>
     <t xml:space="preserve">Rowena Cabrera</t>
@@ -71,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -98,6 +104,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,6 +167,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,13 +191,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.11"/>
   </cols>
@@ -225,7 +240,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>9191999999</v>
+        <v>9291999999</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -239,7 +254,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>9191999999</v>
+        <v>9391999999</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -252,18 +267,26 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>9191999999</v>
+      <c r="C5" s="4" t="n">
+        <v>9491999999</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>9591999999</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -516,6 +539,12 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
